--- a/stocks_cultures_dna/Hendry_minus80_2025apr24.xlsx
+++ b/stocks_cultures_dna/Hendry_minus80_2025apr24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6CD64-74D8-284C-ACDB-7F942A0CCF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE48EC-3958-2C4E-B541-B2F29FD73316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{5B6FA614-5CD6-3747-A071-4085B4C6E269}"/>
   </bookViews>
@@ -2430,7 +2430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2536,13 +2536,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2551,44 +2545,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2742,6 +2698,44 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2756,22 +2750,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E3202-230B-0943-ACD5-8D8F2F30E153}" name="Table1" displayName="Table1" ref="A1:M461" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{026E3202-230B-0943-ACD5-8D8F2F30E153}" name="Table1" displayName="Table1" ref="A1:M461" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:M461" xr:uid="{026E3202-230B-0943-ACD5-8D8F2F30E153}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{657A5F2F-D4CF-8E49-8DD3-8484027E56F5}" name="Species" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{657A5F2F-D4CF-8E49-8DD3-8484027E56F5}" name="Species" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{E34E9C2F-B2FC-8E45-ADD0-D639ADFBFEE2}" name="Pathovar"/>
     <tableColumn id="3" xr3:uid="{7DD4B0CE-0C7C-6349-A917-98E7A893A1B4}" name="Strain/plasmid/mutant"/>
-    <tableColumn id="4" xr3:uid="{80E44934-7BDE-424D-A1E8-E4D28310224E}" name="Resistance" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{80E44934-7BDE-424D-A1E8-E4D28310224E}" name="Resistance" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{B49892A4-7927-BC4D-BB49-50AC6CA80B1F}" name="Minus 80 tube #"/>
-    <tableColumn id="6" xr3:uid="{7059437E-47DA-A441-8324-C4660D18B273}" name="Minus 80 location" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{7059437E-47DA-A441-8324-C4660D18B273}" name="Minus 80 location" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{479423A3-F0F4-C148-AC65-F43ABADD2C18}" name="Source"/>
-    <tableColumn id="8" xr3:uid="{AAF7A793-C63E-9B4C-AC15-F15407BDCF96}" name="Citation" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AAF7A793-C63E-9B4C-AC15-F15407BDCF96}" name="Citation" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{FBA47F8D-CE50-9743-8ADF-8BBBF3B17509}" name="Notes"/>
-    <tableColumn id="10" xr3:uid="{2130431B-15FF-A640-9B92-5651179BA144}" name="RAST Name" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{D275010D-0551-E640-A2BA-DECFD42AD6BA}" name="Environment " dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{2130431B-15FF-A640-9B92-5651179BA144}" name="RAST Name" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D275010D-0551-E640-A2BA-DECFD42AD6BA}" name="Environment " dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{E653B052-4FE2-4740-B6B1-AAFC1123D4B8}" name="Date entered"/>
-    <tableColumn id="13" xr3:uid="{551754FA-0CEA-684A-A603-D45CAEA34D66}" name="Old Name" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{551754FA-0CEA-684A-A603-D45CAEA34D66}" name="Old Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3096,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F07667-6DB1-6D47-AB71-031F5928FB77}">
   <dimension ref="A1:M461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3118,43 +3112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3181,7 +3175,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="37"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -3206,7 +3200,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="38"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3229,7 +3223,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3260,7 +3254,7 @@
       <c r="L5" s="9">
         <v>42724</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3289,7 +3283,7 @@
       <c r="L6" s="12">
         <v>42502</v>
       </c>
-      <c r="M6" s="37"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -3320,7 +3314,7 @@
       <c r="L7" s="9">
         <v>42502</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3351,7 +3345,7 @@
       <c r="L8" s="12">
         <v>42724</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -3382,7 +3376,7 @@
       <c r="L9" s="9">
         <v>42724</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3411,7 +3405,7 @@
       <c r="L10" s="12">
         <v>42502</v>
       </c>
-      <c r="M10" s="37"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3440,7 +3434,7 @@
       <c r="L11" s="9">
         <v>42502</v>
       </c>
-      <c r="M11" s="38"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3471,7 +3465,7 @@
       <c r="L12" s="12">
         <v>42724</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -3502,7 +3496,7 @@
       <c r="L13" s="9">
         <v>42724</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3533,7 +3527,7 @@
       <c r="L14" s="12">
         <v>42502</v>
       </c>
-      <c r="M14" s="37"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -3564,7 +3558,7 @@
       <c r="L15" s="9">
         <v>42724</v>
       </c>
-      <c r="M15" s="38"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3595,7 +3589,7 @@
       <c r="L16" s="12">
         <v>42502</v>
       </c>
-      <c r="M16" s="37"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -3624,7 +3618,7 @@
       <c r="L17" s="9">
         <v>42502</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -3653,7 +3647,7 @@
       <c r="L18" s="12">
         <v>42724</v>
       </c>
-      <c r="M18" s="37"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -3684,7 +3678,7 @@
       <c r="L19" s="9">
         <v>42811</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3715,7 +3709,7 @@
       <c r="L20" s="12">
         <v>42811</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -3744,7 +3738,7 @@
       <c r="L21" s="9">
         <v>42811</v>
       </c>
-      <c r="M21" s="38"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -3775,7 +3769,7 @@
       <c r="L22" s="12">
         <v>42811</v>
       </c>
-      <c r="M22" s="37"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -3806,7 +3800,7 @@
       <c r="L23" s="9">
         <v>42811</v>
       </c>
-      <c r="M23" s="38"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -3837,7 +3831,7 @@
       <c r="L24" s="12">
         <v>42811</v>
       </c>
-      <c r="M24" s="37"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -3864,7 +3858,7 @@
       <c r="L25" s="9">
         <v>42811</v>
       </c>
-      <c r="M25" s="38"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -3895,7 +3889,7 @@
       <c r="L26" s="12">
         <v>42811</v>
       </c>
-      <c r="M26" s="37"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -3926,7 +3920,7 @@
       <c r="L27" s="9">
         <v>42811</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -3955,7 +3949,7 @@
       <c r="L28" s="12">
         <v>42811</v>
       </c>
-      <c r="M28" s="37"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -3986,7 +3980,7 @@
       <c r="L29" s="9">
         <v>42811</v>
       </c>
-      <c r="M29" s="38"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -4013,7 +4007,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="37"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -4040,7 +4034,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="38"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4067,7 +4061,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -4092,7 +4086,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="38"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -4117,7 +4111,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="37"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
@@ -4142,7 +4136,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="38"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -4169,7 +4163,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="37"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -4196,7 +4190,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="38"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4221,7 +4215,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="37"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -4250,7 +4244,7 @@
       <c r="L39" s="9">
         <v>43136</v>
       </c>
-      <c r="M39" s="38"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4281,7 +4275,7 @@
       <c r="L40" s="12">
         <v>43136</v>
       </c>
-      <c r="M40" s="37"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
@@ -4308,7 +4302,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="38"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -4335,7 +4329,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="37"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
@@ -4362,7 +4356,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="38"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -4389,7 +4383,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="37"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -4416,7 +4410,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="38"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -4447,7 +4441,7 @@
       <c r="L46" s="12">
         <v>43377</v>
       </c>
-      <c r="M46" s="37"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -4480,7 +4474,7 @@
       <c r="L47" s="9">
         <v>43389</v>
       </c>
-      <c r="M47" s="38"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -4513,7 +4507,7 @@
       <c r="L48" s="12">
         <v>43389</v>
       </c>
-      <c r="M48" s="37"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -4536,7 +4530,7 @@
         <v>146</v>
       </c>
       <c r="L49" s="6"/>
-      <c r="M49" s="38"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -4563,7 +4557,7 @@
         <v>151</v>
       </c>
       <c r="L50" s="3"/>
-      <c r="M50" s="37"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -4590,7 +4584,7 @@
         <v>155</v>
       </c>
       <c r="L51" s="6"/>
-      <c r="M51" s="38"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -4617,7 +4611,7 @@
         <v>155</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="37"/>
+      <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
@@ -4644,7 +4638,7 @@
         <v>162</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="38"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -4671,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="37"/>
+      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
@@ -4698,7 +4692,7 @@
         <v>164</v>
       </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="38"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
@@ -4725,7 +4719,7 @@
         <v>164</v>
       </c>
       <c r="L56" s="3"/>
-      <c r="M56" s="37"/>
+      <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -4752,7 +4746,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="38"/>
+      <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -4779,7 +4773,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="37"/>
+      <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
@@ -4806,7 +4800,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="38"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -4833,7 +4827,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="37"/>
+      <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -4860,7 +4854,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="38"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4887,7 +4881,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="37"/>
+      <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -4914,7 +4908,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="38"/>
+      <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -4941,7 +4935,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="37"/>
+      <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
@@ -4968,7 +4962,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="38"/>
+      <c r="M65" s="6"/>
     </row>
     <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -4995,7 +4989,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="37"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -5022,7 +5016,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="38"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -5049,7 +5043,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="37"/>
+      <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
@@ -5076,7 +5070,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="38"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -5103,7 +5097,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="37"/>
+      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
@@ -5130,7 +5124,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="38"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -5157,7 +5151,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="37"/>
+      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -5184,7 +5178,7 @@
         <v>192</v>
       </c>
       <c r="L73" s="6"/>
-      <c r="M73" s="38"/>
+      <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -5211,7 +5205,7 @@
         <v>192</v>
       </c>
       <c r="L74" s="3"/>
-      <c r="M74" s="37"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
@@ -5238,7 +5232,7 @@
         <v>192</v>
       </c>
       <c r="L75" s="6"/>
-      <c r="M75" s="38"/>
+      <c r="M75" s="6"/>
     </row>
     <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5265,7 +5259,7 @@
         <v>192</v>
       </c>
       <c r="L76" s="3"/>
-      <c r="M76" s="37"/>
+      <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
@@ -5292,7 +5286,7 @@
         <v>192</v>
       </c>
       <c r="L77" s="6"/>
-      <c r="M77" s="38"/>
+      <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -5319,7 +5313,7 @@
         <v>201</v>
       </c>
       <c r="L78" s="3"/>
-      <c r="M78" s="37"/>
+      <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -5346,7 +5340,7 @@
         <v>203</v>
       </c>
       <c r="L79" s="6"/>
-      <c r="M79" s="38"/>
+      <c r="M79" s="6"/>
     </row>
     <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5373,7 +5367,7 @@
         <v>192</v>
       </c>
       <c r="L80" s="3"/>
-      <c r="M80" s="37"/>
+      <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
@@ -5398,7 +5392,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="38"/>
+      <c r="M81" s="6"/>
     </row>
     <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -5425,7 +5419,7 @@
         <v>192</v>
       </c>
       <c r="L82" s="3"/>
-      <c r="M82" s="37"/>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
@@ -5452,7 +5446,7 @@
         <v>192</v>
       </c>
       <c r="L83" s="6"/>
-      <c r="M83" s="38"/>
+      <c r="M83" s="6"/>
     </row>
     <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -5477,7 +5471,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="37"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -5504,7 +5498,7 @@
         <v>192</v>
       </c>
       <c r="L85" s="6"/>
-      <c r="M85" s="38"/>
+      <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -5533,7 +5527,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="37"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
@@ -5562,7 +5556,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="38"/>
+      <c r="M87" s="6"/>
     </row>
     <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -5591,7 +5585,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="37"/>
+      <c r="M88" s="3"/>
     </row>
     <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
@@ -5620,7 +5614,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="38"/>
+      <c r="M89" s="6"/>
     </row>
     <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -5645,7 +5639,7 @@
         <v>231</v>
       </c>
       <c r="L90" s="3"/>
-      <c r="M90" s="37"/>
+      <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
@@ -5670,7 +5664,7 @@
         <v>231</v>
       </c>
       <c r="L91" s="6"/>
-      <c r="M91" s="38"/>
+      <c r="M91" s="6"/>
     </row>
     <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
@@ -5695,7 +5689,7 @@
         <v>234</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="37"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -5720,7 +5714,7 @@
         <v>234</v>
       </c>
       <c r="L93" s="6"/>
-      <c r="M93" s="38"/>
+      <c r="M93" s="6"/>
     </row>
     <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
@@ -5745,7 +5739,7 @@
         <v>234</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="37"/>
+      <c r="M94" s="3"/>
     </row>
     <row r="95" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
@@ -5770,7 +5764,7 @@
         <v>234</v>
       </c>
       <c r="L95" s="6"/>
-      <c r="M95" s="38"/>
+      <c r="M95" s="6"/>
     </row>
     <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -5795,7 +5789,7 @@
         <v>234</v>
       </c>
       <c r="L96" s="3"/>
-      <c r="M96" s="37"/>
+      <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
@@ -5820,7 +5814,7 @@
         <v>234</v>
       </c>
       <c r="L97" s="6"/>
-      <c r="M97" s="38"/>
+      <c r="M97" s="6"/>
     </row>
     <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -5849,7 +5843,7 @@
         <v>243</v>
       </c>
       <c r="L98" s="3"/>
-      <c r="M98" s="37" t="s">
+      <c r="M98" s="3" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5880,7 +5874,7 @@
         <v>243</v>
       </c>
       <c r="L99" s="6"/>
-      <c r="M99" s="38" t="s">
+      <c r="M99" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5911,7 +5905,7 @@
         <v>243</v>
       </c>
       <c r="L100" s="3"/>
-      <c r="M100" s="37" t="s">
+      <c r="M100" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5942,7 +5936,7 @@
         <v>243</v>
       </c>
       <c r="L101" s="6"/>
-      <c r="M101" s="38" t="s">
+      <c r="M101" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5973,7 +5967,7 @@
         <v>243</v>
       </c>
       <c r="L102" s="3"/>
-      <c r="M102" s="37" t="s">
+      <c r="M102" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6004,7 +5998,7 @@
         <v>243</v>
       </c>
       <c r="L103" s="6"/>
-      <c r="M103" s="38" t="s">
+      <c r="M103" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6035,7 +6029,7 @@
         <v>243</v>
       </c>
       <c r="L104" s="3"/>
-      <c r="M104" s="37" t="s">
+      <c r="M104" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6066,7 +6060,7 @@
         <v>243</v>
       </c>
       <c r="L105" s="6"/>
-      <c r="M105" s="38" t="s">
+      <c r="M105" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6097,7 +6091,7 @@
         <v>243</v>
       </c>
       <c r="L106" s="3"/>
-      <c r="M106" s="37" t="s">
+      <c r="M106" s="3" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6130,7 +6124,7 @@
         <v>243</v>
       </c>
       <c r="L107" s="6"/>
-      <c r="M107" s="38" t="s">
+      <c r="M107" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6161,7 +6155,7 @@
         <v>243</v>
       </c>
       <c r="L108" s="3"/>
-      <c r="M108" s="37" t="s">
+      <c r="M108" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6194,7 +6188,7 @@
       <c r="L109" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="M109" s="38" t="s">
+      <c r="M109" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6227,7 +6221,7 @@
       <c r="L110" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M110" s="37" t="s">
+      <c r="M110" s="3" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6260,7 +6254,7 @@
       <c r="L111" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M111" s="38" t="s">
+      <c r="M111" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6293,7 +6287,7 @@
       <c r="L112" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="M112" s="37" t="s">
+      <c r="M112" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6326,7 +6320,7 @@
         <v>243</v>
       </c>
       <c r="L113" s="6"/>
-      <c r="M113" s="38" t="s">
+      <c r="M113" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6357,7 +6351,7 @@
         <v>243</v>
       </c>
       <c r="L114" s="3"/>
-      <c r="M114" s="37" t="s">
+      <c r="M114" s="3" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6388,7 +6382,7 @@
         <v>243</v>
       </c>
       <c r="L115" s="6"/>
-      <c r="M115" s="38" t="s">
+      <c r="M115" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6419,7 +6413,7 @@
         <v>243</v>
       </c>
       <c r="L116" s="3"/>
-      <c r="M116" s="37" t="s">
+      <c r="M116" s="3" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6450,7 +6444,7 @@
         <v>243</v>
       </c>
       <c r="L117" s="6"/>
-      <c r="M117" s="38" t="s">
+      <c r="M117" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6481,7 +6475,7 @@
         <v>243</v>
       </c>
       <c r="L118" s="3"/>
-      <c r="M118" s="37" t="s">
+      <c r="M118" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6512,7 +6506,7 @@
         <v>243</v>
       </c>
       <c r="L119" s="6"/>
-      <c r="M119" s="38" t="s">
+      <c r="M119" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6543,7 +6537,7 @@
         <v>243</v>
       </c>
       <c r="L120" s="3"/>
-      <c r="M120" s="37" t="s">
+      <c r="M120" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6574,7 +6568,7 @@
         <v>243</v>
       </c>
       <c r="L121" s="6"/>
-      <c r="M121" s="38" t="s">
+      <c r="M121" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6605,7 +6599,7 @@
         <v>243</v>
       </c>
       <c r="L122" s="3"/>
-      <c r="M122" s="37" t="s">
+      <c r="M122" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6636,7 +6630,7 @@
         <v>243</v>
       </c>
       <c r="L123" s="6"/>
-      <c r="M123" s="38" t="s">
+      <c r="M123" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6669,7 +6663,7 @@
         <v>243</v>
       </c>
       <c r="L124" s="3"/>
-      <c r="M124" s="37" t="s">
+      <c r="M124" s="3" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6700,7 +6694,7 @@
         <v>243</v>
       </c>
       <c r="L125" s="6"/>
-      <c r="M125" s="38" t="s">
+      <c r="M125" s="6" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6731,7 +6725,7 @@
         <v>243</v>
       </c>
       <c r="L126" s="3"/>
-      <c r="M126" s="37" t="s">
+      <c r="M126" s="3" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6762,7 +6756,7 @@
         <v>243</v>
       </c>
       <c r="L127" s="6"/>
-      <c r="M127" s="38" t="s">
+      <c r="M127" s="6" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6793,7 +6787,7 @@
         <v>243</v>
       </c>
       <c r="L128" s="3"/>
-      <c r="M128" s="37" t="s">
+      <c r="M128" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6824,7 +6818,7 @@
         <v>243</v>
       </c>
       <c r="L129" s="6"/>
-      <c r="M129" s="38" t="s">
+      <c r="M129" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6857,7 +6851,7 @@
         <v>243</v>
       </c>
       <c r="L130" s="3"/>
-      <c r="M130" s="37" t="s">
+      <c r="M130" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6890,7 +6884,7 @@
         <v>243</v>
       </c>
       <c r="L131" s="6"/>
-      <c r="M131" s="38" t="s">
+      <c r="M131" s="6" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6921,7 +6915,7 @@
         <v>243</v>
       </c>
       <c r="L132" s="3"/>
-      <c r="M132" s="37" t="s">
+      <c r="M132" s="3" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6956,7 +6950,7 @@
         <v>243</v>
       </c>
       <c r="L133" s="6"/>
-      <c r="M133" s="38" t="s">
+      <c r="M133" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6989,7 +6983,7 @@
         <v>243</v>
       </c>
       <c r="L134" s="3"/>
-      <c r="M134" s="37" t="s">
+      <c r="M134" s="3" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7022,7 +7016,7 @@
         <v>243</v>
       </c>
       <c r="L135" s="6"/>
-      <c r="M135" s="38" t="s">
+      <c r="M135" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7053,7 +7047,7 @@
         <v>243</v>
       </c>
       <c r="L136" s="3"/>
-      <c r="M136" s="37" t="s">
+      <c r="M136" s="3" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7086,7 +7080,7 @@
         <v>243</v>
       </c>
       <c r="L137" s="6"/>
-      <c r="M137" s="38" t="s">
+      <c r="M137" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7117,7 +7111,7 @@
         <v>243</v>
       </c>
       <c r="L138" s="3"/>
-      <c r="M138" s="37" t="s">
+      <c r="M138" s="3" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7148,7 +7142,7 @@
         <v>243</v>
       </c>
       <c r="L139" s="6"/>
-      <c r="M139" s="38" t="s">
+      <c r="M139" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7181,7 +7175,7 @@
         <v>243</v>
       </c>
       <c r="L140" s="3"/>
-      <c r="M140" s="37" t="s">
+      <c r="M140" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7214,7 +7208,7 @@
         <v>243</v>
       </c>
       <c r="L141" s="6"/>
-      <c r="M141" s="38" t="s">
+      <c r="M141" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7245,7 +7239,7 @@
         <v>243</v>
       </c>
       <c r="L142" s="3"/>
-      <c r="M142" s="37" t="s">
+      <c r="M142" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7276,7 +7270,7 @@
         <v>243</v>
       </c>
       <c r="L143" s="6"/>
-      <c r="M143" s="38" t="s">
+      <c r="M143" s="6" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7307,7 +7301,7 @@
         <v>243</v>
       </c>
       <c r="L144" s="3"/>
-      <c r="M144" s="37" t="s">
+      <c r="M144" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7338,7 +7332,7 @@
         <v>243</v>
       </c>
       <c r="L145" s="6"/>
-      <c r="M145" s="38" t="s">
+      <c r="M145" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7369,7 +7363,7 @@
         <v>243</v>
       </c>
       <c r="L146" s="3"/>
-      <c r="M146" s="37" t="s">
+      <c r="M146" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7400,7 +7394,7 @@
         <v>243</v>
       </c>
       <c r="L147" s="6"/>
-      <c r="M147" s="38" t="s">
+      <c r="M147" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -7431,7 +7425,7 @@
         <v>243</v>
       </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="37" t="s">
+      <c r="M148" s="3" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7460,7 +7454,7 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="38"/>
+      <c r="M149" s="6"/>
     </row>
     <row r="150" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
@@ -7487,7 +7481,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
-      <c r="M150" s="37"/>
+      <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
@@ -7514,7 +7508,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
-      <c r="M151" s="38"/>
+      <c r="M151" s="6"/>
     </row>
     <row r="152" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
@@ -7541,7 +7535,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-      <c r="M152" s="37"/>
+      <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -7568,7 +7562,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
-      <c r="M153" s="38"/>
+      <c r="M153" s="6"/>
     </row>
     <row r="154" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
@@ -7595,7 +7589,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="37"/>
+      <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
@@ -7622,7 +7616,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="38"/>
+      <c r="M155" s="6"/>
     </row>
     <row r="156" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
@@ -7649,7 +7643,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
-      <c r="M156" s="37"/>
+      <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
@@ -7676,7 +7670,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="38"/>
+      <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
@@ -7703,7 +7697,7 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-      <c r="M158" s="37"/>
+      <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
@@ -7726,7 +7720,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="38"/>
+      <c r="M159" s="6"/>
     </row>
     <row r="160" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
@@ -7749,7 +7743,7 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-      <c r="M160" s="37"/>
+      <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
@@ -7772,7 +7766,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
-      <c r="M161" s="38"/>
+      <c r="M161" s="6"/>
     </row>
     <row r="162" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
@@ -7795,7 +7789,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="M162" s="37"/>
+      <c r="M162" s="3"/>
     </row>
     <row r="163" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
@@ -7818,7 +7812,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
-      <c r="M163" s="38"/>
+      <c r="M163" s="6"/>
     </row>
     <row r="164" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
@@ -7841,7 +7835,7 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-      <c r="M164" s="37"/>
+      <c r="M164" s="3"/>
     </row>
     <row r="165" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -7864,7 +7858,7 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
-      <c r="M165" s="38"/>
+      <c r="M165" s="6"/>
     </row>
     <row r="166" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
@@ -7887,7 +7881,7 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-      <c r="M166" s="37"/>
+      <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
@@ -7910,7 +7904,7 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
-      <c r="M167" s="38"/>
+      <c r="M167" s="6"/>
     </row>
     <row r="168" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
@@ -7933,7 +7927,7 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-      <c r="M168" s="37"/>
+      <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
@@ -7956,7 +7950,7 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
-      <c r="M169" s="38"/>
+      <c r="M169" s="6"/>
     </row>
     <row r="170" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
@@ -7979,7 +7973,7 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-      <c r="M170" s="37"/>
+      <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
@@ -8002,7 +7996,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
-      <c r="M171" s="38"/>
+      <c r="M171" s="6"/>
     </row>
     <row r="172" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
@@ -8025,7 +8019,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
-      <c r="M172" s="37"/>
+      <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
@@ -8048,7 +8042,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
-      <c r="M173" s="38"/>
+      <c r="M173" s="6"/>
     </row>
     <row r="174" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
@@ -8071,7 +8065,7 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-      <c r="M174" s="37"/>
+      <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
@@ -8094,7 +8088,7 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
-      <c r="M175" s="38"/>
+      <c r="M175" s="6"/>
     </row>
     <row r="176" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
@@ -8117,7 +8111,7 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
-      <c r="M176" s="37"/>
+      <c r="M176" s="3"/>
     </row>
     <row r="177" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
@@ -8140,7 +8134,7 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
-      <c r="M177" s="38"/>
+      <c r="M177" s="6"/>
     </row>
     <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
@@ -8163,7 +8157,7 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
-      <c r="M178" s="37"/>
+      <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
@@ -8186,7 +8180,7 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
-      <c r="M179" s="38"/>
+      <c r="M179" s="6"/>
     </row>
     <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
@@ -8207,7 +8201,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
-      <c r="M180" s="37"/>
+      <c r="M180" s="3"/>
     </row>
     <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
@@ -8228,7 +8222,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
-      <c r="M181" s="38"/>
+      <c r="M181" s="6"/>
     </row>
     <row r="182" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
@@ -8249,7 +8243,7 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
-      <c r="M182" s="37"/>
+      <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
@@ -8270,7 +8264,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
-      <c r="M183" s="38"/>
+      <c r="M183" s="6"/>
     </row>
     <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
@@ -8291,7 +8285,7 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-      <c r="M184" s="37"/>
+      <c r="M184" s="3"/>
     </row>
     <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
@@ -8312,7 +8306,7 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="38"/>
+      <c r="M185" s="6"/>
     </row>
     <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
@@ -8333,7 +8327,7 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-      <c r="M186" s="37"/>
+      <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
@@ -8362,7 +8356,7 @@
         <v>411</v>
       </c>
       <c r="L187" s="6"/>
-      <c r="M187" s="38"/>
+      <c r="M187" s="6"/>
     </row>
     <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
@@ -8383,7 +8377,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-      <c r="M188" s="37"/>
+      <c r="M188" s="3"/>
     </row>
     <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
@@ -8404,7 +8398,7 @@
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
-      <c r="M189" s="38"/>
+      <c r="M189" s="6"/>
     </row>
     <row r="190" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
@@ -8425,7 +8419,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
-      <c r="M190" s="37"/>
+      <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
@@ -8454,7 +8448,7 @@
         <v>420</v>
       </c>
       <c r="L191" s="6"/>
-      <c r="M191" s="38"/>
+      <c r="M191" s="6"/>
     </row>
     <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -8481,7 +8475,7 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-      <c r="M192" s="37"/>
+      <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
@@ -8506,7 +8500,7 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
-      <c r="M193" s="38"/>
+      <c r="M193" s="6"/>
     </row>
     <row r="194" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
@@ -8533,7 +8527,7 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
-      <c r="M194" s="37"/>
+      <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
@@ -8558,7 +8552,7 @@
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
-      <c r="M195" s="38"/>
+      <c r="M195" s="6"/>
     </row>
     <row r="196" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
@@ -8581,7 +8575,7 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-      <c r="M196" s="37"/>
+      <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
@@ -8604,7 +8598,7 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
-      <c r="M197" s="38"/>
+      <c r="M197" s="6"/>
     </row>
     <row r="198" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
@@ -8627,7 +8621,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
-      <c r="M198" s="37"/>
+      <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
@@ -8650,7 +8644,7 @@
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
-      <c r="M199" s="38"/>
+      <c r="M199" s="6"/>
     </row>
     <row r="200" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
@@ -8683,7 +8677,7 @@
       <c r="L200" s="18">
         <v>45979</v>
       </c>
-      <c r="M200" s="37"/>
+      <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
@@ -8716,7 +8710,7 @@
       <c r="L201" s="19">
         <v>45979</v>
       </c>
-      <c r="M201" s="38"/>
+      <c r="M201" s="6"/>
     </row>
     <row r="202" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
@@ -8743,7 +8737,7 @@
         <v>445</v>
       </c>
       <c r="L202" s="3"/>
-      <c r="M202" s="37"/>
+      <c r="M202" s="3"/>
     </row>
     <row r="203" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
@@ -8770,7 +8764,7 @@
         <v>448</v>
       </c>
       <c r="L203" s="6"/>
-      <c r="M203" s="38"/>
+      <c r="M203" s="6"/>
     </row>
     <row r="204" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
@@ -8793,7 +8787,7 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-      <c r="M204" s="37"/>
+      <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
@@ -8820,7 +8814,7 @@
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
-      <c r="M205" s="38"/>
+      <c r="M205" s="6"/>
     </row>
     <row r="206" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
@@ -8847,7 +8841,7 @@
       <c r="L206" s="18">
         <v>45748</v>
       </c>
-      <c r="M206" s="37"/>
+      <c r="M206" s="3"/>
     </row>
     <row r="207" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
@@ -8876,7 +8870,7 @@
         <v>463</v>
       </c>
       <c r="L207" s="6"/>
-      <c r="M207" s="38"/>
+      <c r="M207" s="6"/>
     </row>
     <row r="208" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
@@ -8905,7 +8899,7 @@
       <c r="L208" s="18">
         <v>45836</v>
       </c>
-      <c r="M208" s="37"/>
+      <c r="M208" s="3"/>
     </row>
     <row r="209" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
@@ -8932,7 +8926,7 @@
       <c r="L209" s="19">
         <v>45979</v>
       </c>
-      <c r="M209" s="38"/>
+      <c r="M209" s="6"/>
     </row>
     <row r="210" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
@@ -8967,7 +8961,7 @@
       <c r="L210" s="24">
         <v>44981</v>
       </c>
-      <c r="M210" s="37"/>
+      <c r="M210" s="3"/>
     </row>
     <row r="211" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
@@ -9023,7 +9017,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="32"/>
       <c r="L212" s="3"/>
-      <c r="M212" s="37"/>
+      <c r="M212" s="3"/>
     </row>
     <row r="213" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
@@ -9044,7 +9038,7 @@
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
-      <c r="M213" s="38"/>
+      <c r="M213" s="6"/>
     </row>
     <row r="214" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
@@ -9065,7 +9059,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
-      <c r="M214" s="37"/>
+      <c r="M214" s="3"/>
     </row>
     <row r="215" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="33" t="s">
@@ -9086,7 +9080,7 @@
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
-      <c r="M215" s="38"/>
+      <c r="M215" s="6"/>
     </row>
     <row r="216" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
@@ -9107,7 +9101,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
-      <c r="M216" s="37"/>
+      <c r="M216" s="3"/>
     </row>
     <row r="217" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="33" t="s">
@@ -9128,7 +9122,7 @@
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
-      <c r="M217" s="38"/>
+      <c r="M217" s="6"/>
     </row>
     <row r="218" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="30" t="s">
@@ -9149,7 +9143,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
-      <c r="M218" s="37"/>
+      <c r="M218" s="3"/>
     </row>
     <row r="219" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="33" t="s">
@@ -9170,7 +9164,7 @@
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="38"/>
+      <c r="M219" s="6"/>
     </row>
     <row r="220" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="30" t="s">
@@ -9191,7 +9185,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
-      <c r="M220" s="37"/>
+      <c r="M220" s="3"/>
     </row>
     <row r="221" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="33" t="s">
@@ -9212,7 +9206,7 @@
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
-      <c r="M221" s="38"/>
+      <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
@@ -9233,7 +9227,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
-      <c r="M222" s="37"/>
+      <c r="M222" s="3"/>
     </row>
     <row r="223" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="33" t="s">
@@ -9254,7 +9248,7 @@
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
-      <c r="M223" s="38"/>
+      <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="30" t="s">
@@ -9275,7 +9269,7 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
-      <c r="M224" s="37"/>
+      <c r="M224" s="3"/>
     </row>
     <row r="225" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="s">
@@ -9296,7 +9290,7 @@
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
-      <c r="M225" s="38"/>
+      <c r="M225" s="6"/>
     </row>
     <row r="226" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="30" t="s">
@@ -9317,7 +9311,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
-      <c r="M226" s="37"/>
+      <c r="M226" s="3"/>
     </row>
     <row r="227" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="33" t="s">
@@ -9338,7 +9332,7 @@
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
-      <c r="M227" s="38"/>
+      <c r="M227" s="6"/>
     </row>
     <row r="228" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="30" t="s">
@@ -9359,7 +9353,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
-      <c r="M228" s="37"/>
+      <c r="M228" s="3"/>
     </row>
     <row r="229" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="33" t="s">
@@ -9380,7 +9374,7 @@
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
-      <c r="M229" s="38"/>
+      <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="30" t="s">
@@ -9401,7 +9395,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-      <c r="M230" s="37"/>
+      <c r="M230" s="3"/>
     </row>
     <row r="231" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="33" t="s">
@@ -9422,7 +9416,7 @@
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
-      <c r="M231" s="38"/>
+      <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="30" t="s">
@@ -9443,7 +9437,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
-      <c r="M232" s="37"/>
+      <c r="M232" s="3"/>
     </row>
     <row r="233" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="33" t="s">
@@ -9464,7 +9458,7 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
-      <c r="M233" s="38"/>
+      <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="30" t="s">
@@ -9485,7 +9479,7 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
-      <c r="M234" s="37"/>
+      <c r="M234" s="3"/>
     </row>
     <row r="235" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="33" t="s">
@@ -9506,7 +9500,7 @@
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
-      <c r="M235" s="38"/>
+      <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="30" t="s">
@@ -9527,7 +9521,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
-      <c r="M236" s="37"/>
+      <c r="M236" s="3"/>
     </row>
     <row r="237" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="33" t="s">
@@ -9548,7 +9542,7 @@
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
-      <c r="M237" s="38"/>
+      <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="30" t="s">
@@ -9569,7 +9563,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
-      <c r="M238" s="37"/>
+      <c r="M238" s="3"/>
     </row>
     <row r="239" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="33" t="s">
@@ -9590,7 +9584,7 @@
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
-      <c r="M239" s="38"/>
+      <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="30" t="s">
@@ -9611,7 +9605,7 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
-      <c r="M240" s="37"/>
+      <c r="M240" s="3"/>
     </row>
     <row r="241" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="33" t="s">
@@ -9632,7 +9626,7 @@
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
-      <c r="M241" s="38"/>
+      <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="30" t="s">
@@ -9653,7 +9647,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
-      <c r="M242" s="37"/>
+      <c r="M242" s="3"/>
     </row>
     <row r="243" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="33" t="s">
@@ -9674,7 +9668,7 @@
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
-      <c r="M243" s="38"/>
+      <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="30" t="s">
@@ -9695,7 +9689,7 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
-      <c r="M244" s="37"/>
+      <c r="M244" s="3"/>
     </row>
     <row r="245" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="33" t="s">
@@ -9716,7 +9710,7 @@
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
-      <c r="M245" s="38"/>
+      <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="30" t="s">
@@ -9737,7 +9731,7 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
-      <c r="M246" s="37"/>
+      <c r="M246" s="3"/>
     </row>
     <row r="247" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="33" t="s">
@@ -9758,7 +9752,7 @@
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
-      <c r="M247" s="38"/>
+      <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="30" t="s">
@@ -9779,7 +9773,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
-      <c r="M248" s="37"/>
+      <c r="M248" s="3"/>
     </row>
     <row r="249" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="33" t="s">
@@ -9800,7 +9794,7 @@
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
-      <c r="M249" s="38"/>
+      <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="30" t="s">
@@ -9821,7 +9815,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
-      <c r="M250" s="37"/>
+      <c r="M250" s="3"/>
     </row>
     <row r="251" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="33" t="s">
@@ -9842,7 +9836,7 @@
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
-      <c r="M251" s="38"/>
+      <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="30" t="s">
@@ -9863,7 +9857,7 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
-      <c r="M252" s="37"/>
+      <c r="M252" s="3"/>
     </row>
     <row r="253" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="33" t="s">
@@ -9884,7 +9878,7 @@
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
-      <c r="M253" s="38"/>
+      <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="30" t="s">
@@ -9905,7 +9899,7 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
-      <c r="M254" s="37"/>
+      <c r="M254" s="3"/>
     </row>
     <row r="255" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="33" t="s">
@@ -9926,7 +9920,7 @@
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
-      <c r="M255" s="38"/>
+      <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="30" t="s">
@@ -9947,7 +9941,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
-      <c r="M256" s="37"/>
+      <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="33" t="s">
@@ -9968,7 +9962,7 @@
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
-      <c r="M257" s="38"/>
+      <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="30" t="s">
@@ -9989,7 +9983,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
-      <c r="M258" s="37"/>
+      <c r="M258" s="3"/>
     </row>
     <row r="259" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="33" t="s">
@@ -10010,7 +10004,7 @@
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
-      <c r="M259" s="38"/>
+      <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="30" t="s">
@@ -10031,7 +10025,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
-      <c r="M260" s="37"/>
+      <c r="M260" s="3"/>
     </row>
     <row r="261" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="33" t="s">
@@ -10052,7 +10046,7 @@
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
-      <c r="M261" s="38"/>
+      <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="30" t="s">
@@ -10073,7 +10067,7 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
-      <c r="M262" s="37"/>
+      <c r="M262" s="3"/>
     </row>
     <row r="263" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="33" t="s">
@@ -10094,7 +10088,7 @@
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
-      <c r="M263" s="38"/>
+      <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="30" t="s">
@@ -10115,7 +10109,7 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
-      <c r="M264" s="37"/>
+      <c r="M264" s="3"/>
     </row>
     <row r="265" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="33" t="s">
@@ -10136,7 +10130,7 @@
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
-      <c r="M265" s="38"/>
+      <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="30" t="s">
@@ -10157,7 +10151,7 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
-      <c r="M266" s="37"/>
+      <c r="M266" s="3"/>
     </row>
     <row r="267" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="33" t="s">
@@ -10178,7 +10172,7 @@
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
-      <c r="M267" s="38"/>
+      <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="30" t="s">
@@ -10199,7 +10193,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
-      <c r="M268" s="37"/>
+      <c r="M268" s="3"/>
     </row>
     <row r="269" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="33" t="s">
@@ -10220,7 +10214,7 @@
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
-      <c r="M269" s="38"/>
+      <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="30" t="s">
@@ -10241,7 +10235,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
-      <c r="M270" s="37"/>
+      <c r="M270" s="3"/>
     </row>
     <row r="271" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="33" t="s">
@@ -10262,7 +10256,7 @@
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
-      <c r="M271" s="38"/>
+      <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="30" t="s">
@@ -10283,7 +10277,7 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
-      <c r="M272" s="37"/>
+      <c r="M272" s="3"/>
     </row>
     <row r="273" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="33" t="s">
@@ -10304,7 +10298,7 @@
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
-      <c r="M273" s="38"/>
+      <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="30" t="s">
@@ -10325,7 +10319,7 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
-      <c r="M274" s="37"/>
+      <c r="M274" s="3"/>
     </row>
     <row r="275" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="33" t="s">
@@ -10346,7 +10340,7 @@
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
-      <c r="M275" s="38"/>
+      <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="30" t="s">
@@ -10367,7 +10361,7 @@
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
-      <c r="M276" s="37"/>
+      <c r="M276" s="3"/>
     </row>
     <row r="277" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="33" t="s">
@@ -10388,7 +10382,7 @@
       <c r="J277" s="6"/>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
-      <c r="M277" s="38"/>
+      <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="30" t="s">
@@ -10409,7 +10403,7 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
-      <c r="M278" s="37"/>
+      <c r="M278" s="3"/>
     </row>
     <row r="279" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="33" t="s">
@@ -10428,7 +10422,7 @@
       <c r="J279" s="6"/>
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
-      <c r="M279" s="38"/>
+      <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="30" t="s">
@@ -10447,7 +10441,7 @@
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
-      <c r="M280" s="37"/>
+      <c r="M280" s="3"/>
     </row>
     <row r="281" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="33" t="s">
@@ -10466,7 +10460,7 @@
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
-      <c r="M281" s="38"/>
+      <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="30" t="s">
@@ -10485,7 +10479,7 @@
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
-      <c r="M282" s="37"/>
+      <c r="M282" s="3"/>
     </row>
     <row r="283" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="33" t="s">
@@ -10504,7 +10498,7 @@
       <c r="J283" s="6"/>
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
-      <c r="M283" s="38"/>
+      <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="30" t="s">
@@ -10523,7 +10517,7 @@
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
-      <c r="M284" s="37"/>
+      <c r="M284" s="3"/>
     </row>
     <row r="285" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="33" t="s">
@@ -10542,7 +10536,7 @@
       <c r="J285" s="6"/>
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
-      <c r="M285" s="38"/>
+      <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="30" t="s">
@@ -10561,7 +10555,7 @@
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
-      <c r="M286" s="37"/>
+      <c r="M286" s="3"/>
     </row>
     <row r="287" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="33" t="s">
@@ -10580,7 +10574,7 @@
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
-      <c r="M287" s="38"/>
+      <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="30" t="s">
@@ -10599,7 +10593,7 @@
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
-      <c r="M288" s="37"/>
+      <c r="M288" s="3"/>
     </row>
     <row r="289" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="33" t="s">
@@ -10618,7 +10612,7 @@
       <c r="J289" s="6"/>
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
-      <c r="M289" s="38"/>
+      <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="30" t="s">
@@ -10637,7 +10631,7 @@
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
-      <c r="M290" s="37"/>
+      <c r="M290" s="3"/>
     </row>
     <row r="291" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="33" t="s">
@@ -10656,7 +10650,7 @@
       <c r="J291" s="6"/>
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
-      <c r="M291" s="38"/>
+      <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="30" t="s">
@@ -10675,7 +10669,7 @@
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
-      <c r="M292" s="37"/>
+      <c r="M292" s="3"/>
     </row>
     <row r="293" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="33" t="s">
@@ -10694,7 +10688,7 @@
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
-      <c r="M293" s="38"/>
+      <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="30" t="s">
@@ -10713,7 +10707,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
-      <c r="M294" s="37"/>
+      <c r="M294" s="3"/>
     </row>
     <row r="295" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="33" t="s">
@@ -10732,7 +10726,7 @@
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
-      <c r="M295" s="38"/>
+      <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="30" t="s">
@@ -10751,7 +10745,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
-      <c r="M296" s="37"/>
+      <c r="M296" s="3"/>
     </row>
     <row r="297" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="33" t="s">
@@ -10770,7 +10764,7 @@
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
-      <c r="M297" s="38"/>
+      <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="30" t="s">
@@ -10789,7 +10783,7 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
-      <c r="M298" s="37"/>
+      <c r="M298" s="3"/>
     </row>
     <row r="299" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="33" t="s">
@@ -10808,7 +10802,7 @@
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
-      <c r="M299" s="38"/>
+      <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="30" t="s">
@@ -10827,7 +10821,7 @@
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
-      <c r="M300" s="37"/>
+      <c r="M300" s="3"/>
     </row>
     <row r="301" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="33" t="s">
@@ -10846,7 +10840,7 @@
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
-      <c r="M301" s="38"/>
+      <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="30" t="s">
@@ -10865,7 +10859,7 @@
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
-      <c r="M302" s="37"/>
+      <c r="M302" s="3"/>
     </row>
     <row r="303" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="33" t="s">
@@ -10884,7 +10878,7 @@
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
-      <c r="M303" s="38"/>
+      <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="30" t="s">
@@ -10903,7 +10897,7 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
-      <c r="M304" s="37"/>
+      <c r="M304" s="3"/>
     </row>
     <row r="305" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="33" t="s">
@@ -10922,7 +10916,7 @@
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
-      <c r="M305" s="38"/>
+      <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="30" t="s">
@@ -10941,7 +10935,7 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
-      <c r="M306" s="37"/>
+      <c r="M306" s="3"/>
     </row>
     <row r="307" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="33" t="s">
@@ -10960,7 +10954,7 @@
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
-      <c r="M307" s="38"/>
+      <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="30" t="s">
@@ -10979,7 +10973,7 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
-      <c r="M308" s="37"/>
+      <c r="M308" s="3"/>
     </row>
     <row r="309" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="33" t="s">
@@ -10998,7 +10992,7 @@
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
-      <c r="M309" s="38"/>
+      <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="30" t="s">
@@ -11017,7 +11011,7 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
-      <c r="M310" s="37"/>
+      <c r="M310" s="3"/>
     </row>
     <row r="311" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="33" t="s">
@@ -11036,7 +11030,7 @@
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
-      <c r="M311" s="38"/>
+      <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="30" t="s">
@@ -11055,7 +11049,7 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
-      <c r="M312" s="37"/>
+      <c r="M312" s="3"/>
     </row>
     <row r="313" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="33" t="s">
@@ -11074,7 +11068,7 @@
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
-      <c r="M313" s="38"/>
+      <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="30" t="s">
@@ -11093,7 +11087,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
-      <c r="M314" s="37"/>
+      <c r="M314" s="3"/>
     </row>
     <row r="315" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="33" t="s">
@@ -11112,7 +11106,7 @@
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
-      <c r="M315" s="38"/>
+      <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="30" t="s">
@@ -11131,7 +11125,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
-      <c r="M316" s="37"/>
+      <c r="M316" s="3"/>
     </row>
     <row r="317" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="33" t="s">
@@ -11150,7 +11144,7 @@
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
-      <c r="M317" s="38"/>
+      <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="30" t="s">
@@ -11169,7 +11163,7 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
-      <c r="M318" s="37"/>
+      <c r="M318" s="3"/>
     </row>
     <row r="319" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="33" t="s">
@@ -11188,7 +11182,7 @@
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
-      <c r="M319" s="38"/>
+      <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="30" t="s">
@@ -11207,7 +11201,7 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
-      <c r="M320" s="37"/>
+      <c r="M320" s="3"/>
     </row>
     <row r="321" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="33" t="s">
@@ -11226,7 +11220,7 @@
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
-      <c r="M321" s="38"/>
+      <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="30" t="s">
@@ -11245,7 +11239,7 @@
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
-      <c r="M322" s="37"/>
+      <c r="M322" s="3"/>
     </row>
     <row r="323" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="33" t="s">
@@ -11264,7 +11258,7 @@
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
-      <c r="M323" s="38"/>
+      <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="30" t="s">
@@ -11283,7 +11277,7 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
-      <c r="M324" s="37"/>
+      <c r="M324" s="3"/>
     </row>
     <row r="325" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="33" t="s">
@@ -11302,7 +11296,7 @@
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
-      <c r="M325" s="38"/>
+      <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="30" t="s">
@@ -11321,7 +11315,7 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
-      <c r="M326" s="37"/>
+      <c r="M326" s="3"/>
     </row>
     <row r="327" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="33" t="s">
@@ -11340,7 +11334,7 @@
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
-      <c r="M327" s="38"/>
+      <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="30" t="s">
@@ -11359,7 +11353,7 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
-      <c r="M328" s="37"/>
+      <c r="M328" s="3"/>
     </row>
     <row r="329" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="33" t="s">
@@ -11378,7 +11372,7 @@
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
-      <c r="M329" s="38"/>
+      <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="30" t="s">
@@ -11397,7 +11391,7 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
-      <c r="M330" s="37"/>
+      <c r="M330" s="3"/>
     </row>
     <row r="331" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="33" t="s">
@@ -11416,7 +11410,7 @@
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
-      <c r="M331" s="38"/>
+      <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="30" t="s">
@@ -11435,7 +11429,7 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
-      <c r="M332" s="37"/>
+      <c r="M332" s="3"/>
     </row>
     <row r="333" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="33" t="s">
@@ -11454,7 +11448,7 @@
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
-      <c r="M333" s="38"/>
+      <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="30" t="s">
@@ -11473,7 +11467,7 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
-      <c r="M334" s="37"/>
+      <c r="M334" s="3"/>
     </row>
     <row r="335" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="33" t="s">
@@ -11492,7 +11486,7 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
-      <c r="M335" s="38"/>
+      <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="30" t="s">
@@ -11511,7 +11505,7 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
-      <c r="M336" s="37"/>
+      <c r="M336" s="3"/>
     </row>
     <row r="337" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="33" t="s">
@@ -11530,7 +11524,7 @@
       <c r="J337" s="6"/>
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
-      <c r="M337" s="38"/>
+      <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="30" t="s">
@@ -11549,7 +11543,7 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
-      <c r="M338" s="37"/>
+      <c r="M338" s="3"/>
     </row>
     <row r="339" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="33" t="s">
@@ -11568,7 +11562,7 @@
       <c r="J339" s="6"/>
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
-      <c r="M339" s="38"/>
+      <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="30" t="s">
@@ -11587,7 +11581,7 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
-      <c r="M340" s="37"/>
+      <c r="M340" s="3"/>
     </row>
     <row r="341" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="33" t="s">
@@ -11606,7 +11600,7 @@
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
-      <c r="M341" s="38"/>
+      <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="30" t="s">
@@ -11625,7 +11619,7 @@
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
-      <c r="M342" s="37"/>
+      <c r="M342" s="3"/>
     </row>
     <row r="343" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="33" t="s">
@@ -11644,7 +11638,7 @@
       <c r="J343" s="6"/>
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
-      <c r="M343" s="38"/>
+      <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="30" t="s">
@@ -11663,7 +11657,7 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
-      <c r="M344" s="37"/>
+      <c r="M344" s="3"/>
     </row>
     <row r="345" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="33" t="s">
@@ -11682,7 +11676,7 @@
       <c r="J345" s="6"/>
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
-      <c r="M345" s="38"/>
+      <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="30" t="s">
@@ -11701,7 +11695,7 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
-      <c r="M346" s="37"/>
+      <c r="M346" s="3"/>
     </row>
     <row r="347" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="33" t="s">
@@ -11720,7 +11714,7 @@
       <c r="J347" s="6"/>
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
-      <c r="M347" s="38"/>
+      <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="30" t="s">
@@ -11739,7 +11733,7 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
-      <c r="M348" s="37"/>
+      <c r="M348" s="3"/>
     </row>
     <row r="349" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="33" t="s">
@@ -11758,7 +11752,7 @@
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
-      <c r="M349" s="38"/>
+      <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="30" t="s">
@@ -11777,7 +11771,7 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
-      <c r="M350" s="37"/>
+      <c r="M350" s="3"/>
     </row>
     <row r="351" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="33" t="s">
@@ -11796,7 +11790,7 @@
       <c r="J351" s="6"/>
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
-      <c r="M351" s="38"/>
+      <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="30" t="s">
@@ -11815,7 +11809,7 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
-      <c r="M352" s="37"/>
+      <c r="M352" s="3"/>
     </row>
     <row r="353" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="33" t="s">
@@ -11834,7 +11828,7 @@
       <c r="J353" s="6"/>
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
-      <c r="M353" s="38"/>
+      <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="30" t="s">
@@ -11853,7 +11847,7 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
-      <c r="M354" s="37"/>
+      <c r="M354" s="3"/>
     </row>
     <row r="355" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="33" t="s">
@@ -11872,7 +11866,7 @@
       <c r="J355" s="6"/>
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
-      <c r="M355" s="38"/>
+      <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="30" t="s">
@@ -11891,7 +11885,7 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
-      <c r="M356" s="37"/>
+      <c r="M356" s="3"/>
     </row>
     <row r="357" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="33" t="s">
@@ -11910,7 +11904,7 @@
       <c r="J357" s="6"/>
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
-      <c r="M357" s="38"/>
+      <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="30" t="s">
@@ -11929,7 +11923,7 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
-      <c r="M358" s="37"/>
+      <c r="M358" s="3"/>
     </row>
     <row r="359" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="33" t="s">
@@ -11948,7 +11942,7 @@
       <c r="J359" s="6"/>
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
-      <c r="M359" s="38"/>
+      <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="30" t="s">
@@ -11967,7 +11961,7 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
-      <c r="M360" s="37"/>
+      <c r="M360" s="3"/>
     </row>
     <row r="361" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="33" t="s">
@@ -11986,7 +11980,7 @@
       <c r="J361" s="6"/>
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
-      <c r="M361" s="38"/>
+      <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="30" t="s">
@@ -12005,7 +11999,7 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
-      <c r="M362" s="37"/>
+      <c r="M362" s="3"/>
     </row>
     <row r="363" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="33" t="s">
@@ -12024,7 +12018,7 @@
       <c r="J363" s="6"/>
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
-      <c r="M363" s="38"/>
+      <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="30" t="s">
@@ -12043,7 +12037,7 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
-      <c r="M364" s="37"/>
+      <c r="M364" s="3"/>
     </row>
     <row r="365" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="33" t="s">
@@ -12062,7 +12056,7 @@
       <c r="J365" s="6"/>
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
-      <c r="M365" s="38"/>
+      <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="30" t="s">
@@ -12081,7 +12075,7 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
-      <c r="M366" s="37"/>
+      <c r="M366" s="3"/>
     </row>
     <row r="367" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="33" t="s">
@@ -12100,7 +12094,7 @@
       <c r="J367" s="6"/>
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
-      <c r="M367" s="38"/>
+      <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="30" t="s">
@@ -12119,7 +12113,7 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
-      <c r="M368" s="37"/>
+      <c r="M368" s="3"/>
     </row>
     <row r="369" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="33" t="s">
@@ -12138,7 +12132,7 @@
       <c r="J369" s="6"/>
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
-      <c r="M369" s="38"/>
+      <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="30" t="s">
@@ -12157,7 +12151,7 @@
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
-      <c r="M370" s="37"/>
+      <c r="M370" s="3"/>
     </row>
     <row r="371" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="33" t="s">
@@ -12176,7 +12170,7 @@
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
-      <c r="M371" s="38"/>
+      <c r="M371" s="6"/>
     </row>
     <row r="372" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="30" t="s">
@@ -12195,7 +12189,7 @@
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
-      <c r="M372" s="37"/>
+      <c r="M372" s="3"/>
     </row>
     <row r="373" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="33" t="s">
@@ -12214,7 +12208,7 @@
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
-      <c r="M373" s="38"/>
+      <c r="M373" s="6"/>
     </row>
     <row r="374" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="30" t="s">
@@ -12233,7 +12227,7 @@
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
-      <c r="M374" s="37"/>
+      <c r="M374" s="3"/>
     </row>
     <row r="375" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="33" t="s">
@@ -12252,7 +12246,7 @@
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
-      <c r="M375" s="38"/>
+      <c r="M375" s="6"/>
     </row>
     <row r="376" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="30" t="s">
@@ -12271,7 +12265,7 @@
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
-      <c r="M376" s="37"/>
+      <c r="M376" s="3"/>
     </row>
     <row r="377" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="33" t="s">
@@ -12290,7 +12284,7 @@
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
-      <c r="M377" s="38"/>
+      <c r="M377" s="6"/>
     </row>
     <row r="378" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="30" t="s">
@@ -12309,7 +12303,7 @@
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
-      <c r="M378" s="37"/>
+      <c r="M378" s="3"/>
     </row>
     <row r="379" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="33" t="s">
@@ -12328,7 +12322,7 @@
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
-      <c r="M379" s="38"/>
+      <c r="M379" s="6"/>
     </row>
     <row r="380" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="30" t="s">
@@ -12347,7 +12341,7 @@
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
-      <c r="M380" s="37"/>
+      <c r="M380" s="3"/>
     </row>
     <row r="381" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="33" t="s">
@@ -12366,7 +12360,7 @@
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
-      <c r="M381" s="38"/>
+      <c r="M381" s="6"/>
     </row>
     <row r="382" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="30" t="s">
@@ -12385,7 +12379,7 @@
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
-      <c r="M382" s="37"/>
+      <c r="M382" s="3"/>
     </row>
     <row r="383" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="33" t="s">
@@ -12404,7 +12398,7 @@
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
-      <c r="M383" s="38"/>
+      <c r="M383" s="6"/>
     </row>
     <row r="384" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="30" t="s">
@@ -12423,7 +12417,7 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
-      <c r="M384" s="37"/>
+      <c r="M384" s="3"/>
     </row>
     <row r="385" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="33" t="s">
@@ -12442,7 +12436,7 @@
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
-      <c r="M385" s="38"/>
+      <c r="M385" s="6"/>
     </row>
     <row r="386" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="30" t="s">
@@ -12461,7 +12455,7 @@
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
-      <c r="M386" s="37"/>
+      <c r="M386" s="3"/>
     </row>
     <row r="387" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="33" t="s">
@@ -12480,7 +12474,7 @@
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
-      <c r="M387" s="38"/>
+      <c r="M387" s="6"/>
     </row>
     <row r="388" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="30" t="s">
@@ -12499,7 +12493,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
-      <c r="M388" s="37"/>
+      <c r="M388" s="3"/>
     </row>
     <row r="389" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="33" t="s">
@@ -12518,7 +12512,7 @@
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
-      <c r="M389" s="38"/>
+      <c r="M389" s="6"/>
     </row>
     <row r="390" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="30" t="s">
@@ -12537,7 +12531,7 @@
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
-      <c r="M390" s="37"/>
+      <c r="M390" s="3"/>
     </row>
     <row r="391" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="33" t="s">
@@ -12556,7 +12550,7 @@
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
-      <c r="M391" s="38"/>
+      <c r="M391" s="6"/>
     </row>
     <row r="392" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="30" t="s">
@@ -12575,7 +12569,7 @@
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
-      <c r="M392" s="37"/>
+      <c r="M392" s="3"/>
     </row>
     <row r="393" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="33" t="s">
@@ -12594,7 +12588,7 @@
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
-      <c r="M393" s="38"/>
+      <c r="M393" s="6"/>
     </row>
     <row r="394" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="30" t="s">
@@ -12613,7 +12607,7 @@
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
-      <c r="M394" s="37"/>
+      <c r="M394" s="3"/>
     </row>
     <row r="395" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A395" s="33" t="s">
@@ -12632,7 +12626,7 @@
       <c r="J395" s="6"/>
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
-      <c r="M395" s="38"/>
+      <c r="M395" s="6"/>
     </row>
     <row r="396" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="30" t="s">
@@ -12651,7 +12645,7 @@
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
-      <c r="M396" s="37"/>
+      <c r="M396" s="3"/>
     </row>
     <row r="397" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="33" t="s">
@@ -12670,7 +12664,7 @@
       <c r="J397" s="6"/>
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
-      <c r="M397" s="38"/>
+      <c r="M397" s="6"/>
     </row>
     <row r="398" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="30" t="s">
@@ -12689,7 +12683,7 @@
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
-      <c r="M398" s="37"/>
+      <c r="M398" s="3"/>
     </row>
     <row r="399" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="33" t="s">
@@ -12708,7 +12702,7 @@
       <c r="J399" s="6"/>
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
-      <c r="M399" s="38"/>
+      <c r="M399" s="6"/>
     </row>
     <row r="400" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="30" t="s">
@@ -12727,7 +12721,7 @@
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
-      <c r="M400" s="37"/>
+      <c r="M400" s="3"/>
     </row>
     <row r="401" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="33" t="s">
@@ -12746,7 +12740,7 @@
       <c r="J401" s="6"/>
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
-      <c r="M401" s="38"/>
+      <c r="M401" s="6"/>
     </row>
     <row r="402" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="30" t="s">
@@ -12765,7 +12759,7 @@
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
-      <c r="M402" s="37"/>
+      <c r="M402" s="3"/>
     </row>
     <row r="403" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="33" t="s">
@@ -12784,7 +12778,7 @@
       <c r="J403" s="6"/>
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
-      <c r="M403" s="38"/>
+      <c r="M403" s="6"/>
     </row>
     <row r="404" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="30" t="s">
@@ -12803,7 +12797,7 @@
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
-      <c r="M404" s="37"/>
+      <c r="M404" s="3"/>
     </row>
     <row r="405" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="33" t="s">
@@ -12822,7 +12816,7 @@
       <c r="J405" s="6"/>
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
-      <c r="M405" s="38"/>
+      <c r="M405" s="6"/>
     </row>
     <row r="406" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="30" t="s">
@@ -12841,7 +12835,7 @@
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
-      <c r="M406" s="37"/>
+      <c r="M406" s="3"/>
     </row>
     <row r="407" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="33" t="s">
@@ -12860,7 +12854,7 @@
       <c r="J407" s="6"/>
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
-      <c r="M407" s="38"/>
+      <c r="M407" s="6"/>
     </row>
     <row r="408" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="30" t="s">
@@ -12879,7 +12873,7 @@
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
-      <c r="M408" s="37"/>
+      <c r="M408" s="3"/>
     </row>
     <row r="409" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="33" t="s">
@@ -12898,7 +12892,7 @@
       <c r="J409" s="6"/>
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
-      <c r="M409" s="38"/>
+      <c r="M409" s="6"/>
     </row>
     <row r="410" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="30" t="s">
@@ -12917,7 +12911,7 @@
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
-      <c r="M410" s="37"/>
+      <c r="M410" s="3"/>
     </row>
     <row r="411" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="33" t="s">
@@ -12936,7 +12930,7 @@
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
-      <c r="M411" s="38"/>
+      <c r="M411" s="6"/>
     </row>
     <row r="412" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="30" t="s">
@@ -12955,7 +12949,7 @@
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
-      <c r="M412" s="37"/>
+      <c r="M412" s="3"/>
     </row>
     <row r="413" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="33" t="s">
@@ -12974,7 +12968,7 @@
       <c r="J413" s="6"/>
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
-      <c r="M413" s="38"/>
+      <c r="M413" s="6"/>
     </row>
     <row r="414" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="30" t="s">
@@ -12993,7 +12987,7 @@
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
-      <c r="M414" s="37"/>
+      <c r="M414" s="3"/>
     </row>
     <row r="415" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="33" t="s">
@@ -13012,7 +13006,7 @@
       <c r="J415" s="6"/>
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
-      <c r="M415" s="38"/>
+      <c r="M415" s="6"/>
     </row>
     <row r="416" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="30" t="s">
@@ -13031,7 +13025,7 @@
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
-      <c r="M416" s="37"/>
+      <c r="M416" s="3"/>
     </row>
     <row r="417" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="33" t="s">
@@ -13050,7 +13044,7 @@
       <c r="J417" s="6"/>
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
-      <c r="M417" s="38"/>
+      <c r="M417" s="6"/>
     </row>
     <row r="418" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="30" t="s">
@@ -13069,7 +13063,7 @@
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
-      <c r="M418" s="37"/>
+      <c r="M418" s="3"/>
     </row>
     <row r="419" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="33" t="s">
@@ -13088,7 +13082,7 @@
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
-      <c r="M419" s="38"/>
+      <c r="M419" s="6"/>
     </row>
     <row r="420" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="30" t="s">
@@ -13107,7 +13101,7 @@
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
-      <c r="M420" s="37"/>
+      <c r="M420" s="3"/>
     </row>
     <row r="421" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="33" t="s">
@@ -13126,7 +13120,7 @@
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
-      <c r="M421" s="38"/>
+      <c r="M421" s="6"/>
     </row>
     <row r="422" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="30" t="s">
@@ -13145,7 +13139,7 @@
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
-      <c r="M422" s="37"/>
+      <c r="M422" s="3"/>
     </row>
     <row r="423" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="33" t="s">
@@ -13164,7 +13158,7 @@
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
-      <c r="M423" s="38"/>
+      <c r="M423" s="6"/>
     </row>
     <row r="424" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="30" t="s">
@@ -13183,7 +13177,7 @@
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
-      <c r="M424" s="37"/>
+      <c r="M424" s="3"/>
     </row>
     <row r="425" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="33" t="s">
@@ -13202,7 +13196,7 @@
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
-      <c r="M425" s="38"/>
+      <c r="M425" s="6"/>
     </row>
     <row r="426" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="30" t="s">
@@ -13221,7 +13215,7 @@
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
-      <c r="M426" s="37"/>
+      <c r="M426" s="3"/>
     </row>
     <row r="427" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="33" t="s">
@@ -13240,7 +13234,7 @@
       <c r="J427" s="6"/>
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
-      <c r="M427" s="38"/>
+      <c r="M427" s="6"/>
     </row>
     <row r="428" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="30" t="s">
@@ -13259,7 +13253,7 @@
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
-      <c r="M428" s="37"/>
+      <c r="M428" s="3"/>
     </row>
     <row r="429" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="33" t="s">
@@ -13278,7 +13272,7 @@
       <c r="J429" s="6"/>
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
-      <c r="M429" s="38"/>
+      <c r="M429" s="6"/>
     </row>
     <row r="430" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="30" t="s">
@@ -13297,7 +13291,7 @@
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
-      <c r="M430" s="37"/>
+      <c r="M430" s="3"/>
     </row>
     <row r="431" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="33" t="s">
@@ -13316,7 +13310,7 @@
       <c r="J431" s="6"/>
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
-      <c r="M431" s="38"/>
+      <c r="M431" s="6"/>
     </row>
     <row r="432" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="30" t="s">
@@ -13335,7 +13329,7 @@
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
-      <c r="M432" s="37"/>
+      <c r="M432" s="3"/>
     </row>
     <row r="433" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="33" t="s">
@@ -13354,7 +13348,7 @@
       <c r="J433" s="6"/>
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
-      <c r="M433" s="38"/>
+      <c r="M433" s="6"/>
     </row>
     <row r="434" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="30" t="s">
@@ -13373,7 +13367,7 @@
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
-      <c r="M434" s="37"/>
+      <c r="M434" s="3"/>
     </row>
     <row r="435" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="33" t="s">
@@ -13392,7 +13386,7 @@
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
-      <c r="M435" s="38"/>
+      <c r="M435" s="6"/>
     </row>
     <row r="436" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="30" t="s">
@@ -13411,7 +13405,7 @@
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
-      <c r="M436" s="37"/>
+      <c r="M436" s="3"/>
     </row>
     <row r="437" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="33" t="s">
@@ -13430,7 +13424,7 @@
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
-      <c r="M437" s="38"/>
+      <c r="M437" s="6"/>
     </row>
     <row r="438" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="30" t="s">
@@ -13449,7 +13443,7 @@
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
-      <c r="M438" s="37"/>
+      <c r="M438" s="3"/>
     </row>
     <row r="439" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="33" t="s">
@@ -13468,7 +13462,7 @@
       <c r="J439" s="6"/>
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
-      <c r="M439" s="38"/>
+      <c r="M439" s="6"/>
     </row>
     <row r="440" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="30" t="s">
@@ -13487,7 +13481,7 @@
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
-      <c r="M440" s="37"/>
+      <c r="M440" s="3"/>
     </row>
     <row r="441" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="33" t="s">
@@ -13506,7 +13500,7 @@
       <c r="J441" s="6"/>
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
-      <c r="M441" s="38"/>
+      <c r="M441" s="6"/>
     </row>
     <row r="442" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="30" t="s">
@@ -13525,7 +13519,7 @@
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
-      <c r="M442" s="37"/>
+      <c r="M442" s="3"/>
     </row>
     <row r="443" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="33" t="s">
@@ -13544,7 +13538,7 @@
       <c r="J443" s="6"/>
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
-      <c r="M443" s="38"/>
+      <c r="M443" s="6"/>
     </row>
     <row r="444" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="30" t="s">
@@ -13563,7 +13557,7 @@
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
-      <c r="M444" s="37"/>
+      <c r="M444" s="3"/>
     </row>
     <row r="445" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="33" t="s">
@@ -13582,7 +13576,7 @@
       <c r="J445" s="6"/>
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
-      <c r="M445" s="38"/>
+      <c r="M445" s="6"/>
     </row>
     <row r="446" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="30" t="s">
@@ -13601,7 +13595,7 @@
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
-      <c r="M446" s="37"/>
+      <c r="M446" s="3"/>
     </row>
     <row r="447" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="33" t="s">
@@ -13620,7 +13614,7 @@
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
-      <c r="M447" s="38"/>
+      <c r="M447" s="6"/>
     </row>
     <row r="448" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="30" t="s">
@@ -13639,7 +13633,7 @@
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
-      <c r="M448" s="37"/>
+      <c r="M448" s="3"/>
     </row>
     <row r="449" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="33" t="s">
@@ -13658,7 +13652,7 @@
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
-      <c r="M449" s="38"/>
+      <c r="M449" s="6"/>
     </row>
     <row r="450" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="30" t="s">
@@ -13677,7 +13671,7 @@
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
-      <c r="M450" s="37"/>
+      <c r="M450" s="3"/>
     </row>
     <row r="451" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="33" t="s">
@@ -13696,7 +13690,7 @@
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
-      <c r="M451" s="38"/>
+      <c r="M451" s="6"/>
     </row>
     <row r="452" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="30" t="s">
@@ -13715,7 +13709,7 @@
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
-      <c r="M452" s="37"/>
+      <c r="M452" s="3"/>
     </row>
     <row r="453" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="33" t="s">
@@ -13734,7 +13728,7 @@
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
-      <c r="M453" s="38"/>
+      <c r="M453" s="6"/>
     </row>
     <row r="454" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="30" t="s">
@@ -13753,7 +13747,7 @@
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
-      <c r="M454" s="37"/>
+      <c r="M454" s="3"/>
     </row>
     <row r="455" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="33" t="s">
@@ -13772,7 +13766,7 @@
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
-      <c r="M455" s="38"/>
+      <c r="M455" s="6"/>
     </row>
     <row r="456" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="30" t="s">
@@ -13791,7 +13785,7 @@
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
-      <c r="M456" s="37"/>
+      <c r="M456" s="3"/>
     </row>
     <row r="457" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A457" s="33" t="s">
@@ -13810,7 +13804,7 @@
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
-      <c r="M457" s="38"/>
+      <c r="M457" s="6"/>
     </row>
     <row r="458" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A458" s="30" t="s">
@@ -13829,7 +13823,7 @@
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
-      <c r="M458" s="37"/>
+      <c r="M458" s="3"/>
     </row>
     <row r="459" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="33" t="s">
@@ -13848,7 +13842,7 @@
       <c r="J459" s="6"/>
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
-      <c r="M459" s="38"/>
+      <c r="M459" s="6"/>
     </row>
     <row r="460" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="30" t="s">
@@ -13867,7 +13861,7 @@
       <c r="J460" s="34"/>
       <c r="K460" s="34"/>
       <c r="L460" s="3"/>
-      <c r="M460" s="37"/>
+      <c r="M460" s="3"/>
     </row>
     <row r="461" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="33" t="s">

--- a/stocks_cultures_dna/Hendry_minus80_2025apr24.xlsx
+++ b/stocks_cultures_dna/Hendry_minus80_2025apr24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/stocks_cultures_dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE48EC-3958-2C4E-B541-B2F29FD73316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00CD9D9-EE44-4E4A-ABA7-E88F7DE56567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{5B6FA614-5CD6-3747-A071-4085B4C6E269}"/>
   </bookViews>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F07667-6DB1-6D47-AB71-031F5928FB77}">
   <dimension ref="A1:M461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
